--- a/KRIN6AD2.xlsx
+++ b/KRIN6AD2.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t>SHS (KRIN6AD2)</t>
@@ -35,13 +35,13 @@
     <t>TYPE_AUTRE</t>
   </si>
   <si>
-    <t>vendredi</t>
+    <t>mardi</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>dimanche</t>
+    <t>jeudi</t>
   </si>
 </sst>
 </file>
@@ -104,7 +104,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44996.0</v>
+        <v>46092.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -143,7 +143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>45002.0</v>
+        <v>46098.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>7</v>
@@ -174,7 +174,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>45004.0</v>
+        <v>46100.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>9</v>
